--- a/Work 2.xlsx
+++ b/Work 2.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B7E527-7DA0-472C-93E5-8341B43BCA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gulzaman\Ai-20052025-BT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EDBA0D-3886-4360-A6FE-F998568544B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -53,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -140,13 +149,91 @@
   </si>
   <si>
     <t>Shahzaib</t>
+  </si>
+  <si>
+    <t>14th / 06 / 2025</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Remining Stock</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Pens</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Keybord</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>Moniter</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Total Sell</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Sum of Total Sell</t>
+  </si>
+  <si>
+    <t>Sum of Revenue</t>
+  </si>
+  <si>
+    <t>Pivot Table</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +265,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,11 +317,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,21 +351,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -276,6 +393,51 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -287,6 +449,278 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45821.943759374997" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{32B15D40-7602-4D62-B044-E977125E8BEF}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Books"/>
+        <s v="Chair"/>
+        <s v="Pens"/>
+        <s v="Watches"/>
+        <s v="Mouse"/>
+        <s v="Keybord"/>
+        <s v="Pc"/>
+        <s v="Moniter"/>
+        <s v="Cable"/>
+        <s v="Charger"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="854"/>
+    </cacheField>
+    <cacheField name="Remining Stock" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12800" maxValue="300000"/>
+    </cacheField>
+    <cacheField name="Total Sell" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="124" maxValue="1200"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="301" maxValue="1450"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="300000"/>
+    <n v="1200"/>
+    <n v="1450"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="56"/>
+    <n v="37520"/>
+    <n v="670"/>
+    <n v="726"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="32"/>
+    <n v="27328"/>
+    <n v="854"/>
+    <n v="886"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="89"/>
+    <n v="22606"/>
+    <n v="254"/>
+    <n v="343"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="90"/>
+    <n v="32850"/>
+    <n v="365"/>
+    <n v="455"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="87"/>
+    <n v="18618"/>
+    <n v="214"/>
+    <n v="301"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="50"/>
+    <n v="12800"/>
+    <n v="256"/>
+    <n v="306"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="456"/>
+    <n v="66120"/>
+    <n v="145"/>
+    <n v="601"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="854"/>
+    <n v="105896"/>
+    <n v="124"/>
+    <n v="978"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="789"/>
+    <n v="287985"/>
+    <n v="365"/>
+    <n v="1154"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE06BCD9-0720-4DC0-8735-2691772E5802}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D21:G32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Price" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Sell" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Revenue" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0954130D-2F1B-422C-8816-5941FA4CCF8B}" name="Table1" displayName="Table1" ref="D8:H18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="D8:H18" xr:uid="{0954130D-2F1B-422C-8816-5941FA4CCF8B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2CFC6621-6ECA-4D09-A859-F30BCFB17D30}" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{EA6251F0-08BC-421D-AFC6-33B895B63F6D}" name="Price" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{50F7870E-DBA9-4BC3-BBE0-6DD62039FFBC}" name="Remining Stock" dataDxfId="9">
+      <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9E7D17D1-9A3E-4DEE-8AE7-1E4171878BC3}" name="Total Sell" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{372722A1-7E26-488D-A7DF-46380D4850B6}" name="Revenue" dataDxfId="7">
+      <calculatedColumnFormula>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{406BC7C4-816E-4A26-AC73-60AA36F1A19F}" name="Table3" displayName="Table3" ref="E6:J26" totalsRowShown="0">
+  <autoFilter ref="E6:J26" xr:uid="{406BC7C4-816E-4A26-AC73-60AA36F1A19F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{05C7FA71-3F02-4C65-93D3-C7DD794FE23B}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{F537CAC8-FADC-442D-9927-428F77399869}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{B638A296-D3EB-42A9-8C29-8774F38E9825}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{913E2084-7386-40B6-8D66-1F5E4414A640}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{D6546B88-ED65-4728-A94B-E265AB8B949C}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{EC319861-24E5-4702-B897-4D52E3AA375E}" name="Column6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,24 +1042,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF39F26-02B4-4B55-8804-89B6DD783621}">
   <dimension ref="B6:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" ht="18.75">
+    <row r="6" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -734,7 +1169,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -793,7 +1228,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -852,7 +1287,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -911,7 +1346,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>5</v>
       </c>
@@ -970,7 +1405,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>6</v>
       </c>
@@ -1029,7 +1464,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>7</v>
       </c>
@@ -1088,7 +1523,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>8</v>
       </c>
@@ -1147,7 +1582,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>9</v>
       </c>
@@ -1192,7 +1627,7 @@
         <v>Result not found</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1251,7 +1686,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1310,7 +1745,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1371,13 +1806,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7:H18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:H18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J18">
@@ -1386,5 +1819,463 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L15 Q15" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF7554-4702-4F72-BB16-8DFF65BD786D}">
+  <dimension ref="D4:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="6" spans="4:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7">
+        <v>250</v>
+      </c>
+      <c r="F9" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>300000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>37520</v>
+      </c>
+      <c r="G10" s="7">
+        <v>670</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="7">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>27328</v>
+      </c>
+      <c r="G11" s="7">
+        <v>854</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="7">
+        <v>89</v>
+      </c>
+      <c r="F12" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>22606</v>
+      </c>
+      <c r="G12" s="7">
+        <v>254</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>32850</v>
+      </c>
+      <c r="G13" s="7">
+        <v>365</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>18618</v>
+      </c>
+      <c r="G14" s="7">
+        <v>214</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>12800</v>
+      </c>
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7">
+        <v>456</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7">
+        <v>145</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="7">
+        <v>854</v>
+      </c>
+      <c r="F17" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>105896</v>
+      </c>
+      <c r="G17" s="7">
+        <v>124</v>
+      </c>
+      <c r="H17" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="7">
+        <v>789</v>
+      </c>
+      <c r="F18" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>287985</v>
+      </c>
+      <c r="G18" s="7">
+        <v>365</v>
+      </c>
+      <c r="H18" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="12">
+        <v>250</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="12">
+        <v>854</v>
+      </c>
+      <c r="F23" s="12">
+        <v>124</v>
+      </c>
+      <c r="G23" s="12">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="12">
+        <v>56</v>
+      </c>
+      <c r="F24" s="12">
+        <v>670</v>
+      </c>
+      <c r="G24" s="12">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12">
+        <v>789</v>
+      </c>
+      <c r="F25" s="12">
+        <v>365</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="12">
+        <v>87</v>
+      </c>
+      <c r="F26" s="12">
+        <v>214</v>
+      </c>
+      <c r="G26" s="12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="12">
+        <v>456</v>
+      </c>
+      <c r="F27" s="12">
+        <v>145</v>
+      </c>
+      <c r="G27" s="12">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="12">
+        <v>90</v>
+      </c>
+      <c r="F28" s="12">
+        <v>365</v>
+      </c>
+      <c r="G28" s="12">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="12">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12">
+        <v>256</v>
+      </c>
+      <c r="G29" s="12">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="12">
+        <v>32</v>
+      </c>
+      <c r="F30" s="12">
+        <v>854</v>
+      </c>
+      <c r="G30" s="12">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="12">
+        <v>89</v>
+      </c>
+      <c r="F31" s="12">
+        <v>254</v>
+      </c>
+      <c r="G31" s="12">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2753</v>
+      </c>
+      <c r="F32" s="11">
+        <v>4447</v>
+      </c>
+      <c r="G32" s="11">
+        <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EE6626-3FE3-4042-B023-AC151467B339}">
+  <dimension ref="E6:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="10" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Work 2.xlsx
+++ b/Work 2.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gulzaman\Ai-20052025-BT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EDBA0D-3886-4360-A6FE-F998568544B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355972C9-6AC5-4B6D-96D1-35ADBD6CBFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Scenario Summary 2" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="cable">Sheet3!$I$14</definedName>
+    <definedName name="keybord">Sheet3!$I$15</definedName>
+    <definedName name="lcd">Sheet3!$I$11</definedName>
+    <definedName name="moniter">Sheet3!$I$12</definedName>
+    <definedName name="mouse">Sheet3!$I$13</definedName>
+    <definedName name="pc">Sheet3!$I$16</definedName>
+    <definedName name="table">Sheet3!$I$18</definedName>
+    <definedName name="usb">Sheet3!$I$17</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -154,18 +165,6 @@
     <t>14th / 06 / 2025</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -226,14 +225,95 @@
     <t>Pivot Table</t>
   </si>
   <si>
-    <t>Column6</t>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>urdu sindhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bio </t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>lcd</t>
+  </si>
+  <si>
+    <t>moniter</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>keybord</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>$I$19</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>Created by STUDENT on 6/18/2025</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +353,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +419,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -332,11 +476,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +549,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,18 +630,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -437,6 +651,18 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -568,7 +794,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE06BCD9-0720-4DC0-8735-2691772E5802}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE06BCD9-0720-4DC0-8735-2691772E5802}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D21:G32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -649,28 +875,28 @@
     <dataField name="Sum of Revenue" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -691,33 +917,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0954130D-2F1B-422C-8816-5941FA4CCF8B}" name="Table1" displayName="Table1" ref="D8:H18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0954130D-2F1B-422C-8816-5941FA4CCF8B}" name="Table1" displayName="Table1" ref="D8:H18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="D8:H18" xr:uid="{0954130D-2F1B-422C-8816-5941FA4CCF8B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2CFC6621-6ECA-4D09-A859-F30BCFB17D30}" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{EA6251F0-08BC-421D-AFC6-33B895B63F6D}" name="Price" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{50F7870E-DBA9-4BC3-BBE0-6DD62039FFBC}" name="Remining Stock" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2CFC6621-6ECA-4D09-A859-F30BCFB17D30}" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{EA6251F0-08BC-421D-AFC6-33B895B63F6D}" name="Price" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{50F7870E-DBA9-4BC3-BBE0-6DD62039FFBC}" name="Remining Stock" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9E7D17D1-9A3E-4DEE-8AE7-1E4171878BC3}" name="Total Sell" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{372722A1-7E26-488D-A7DF-46380D4850B6}" name="Revenue" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{9E7D17D1-9A3E-4DEE-8AE7-1E4171878BC3}" name="Total Sell" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{372722A1-7E26-488D-A7DF-46380D4850B6}" name="Revenue" dataDxfId="3">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{406BC7C4-816E-4A26-AC73-60AA36F1A19F}" name="Table3" displayName="Table3" ref="E6:J26" totalsRowShown="0">
-  <autoFilter ref="E6:J26" xr:uid="{406BC7C4-816E-4A26-AC73-60AA36F1A19F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{05C7FA71-3F02-4C65-93D3-C7DD794FE23B}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{F537CAC8-FADC-442D-9927-428F77399869}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{B638A296-D3EB-42A9-8C29-8774F38E9825}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{913E2084-7386-40B6-8D66-1F5E4414A640}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{D6546B88-ED65-4728-A94B-E265AB8B949C}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{EC319861-24E5-4702-B897-4D52E3AA375E}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1039,28 +1250,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF7554-4702-4F72-BB16-8DFF65BD786D}">
+  <dimension ref="D4:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" ht="23.25">
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="6" spans="4:8" ht="23.25">
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7">
+        <v>250</v>
+      </c>
+      <c r="F9" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>300000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>37520</v>
+      </c>
+      <c r="G10" s="7">
+        <v>670</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="7">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>27328</v>
+      </c>
+      <c r="G11" s="7">
+        <v>854</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7">
+        <v>89</v>
+      </c>
+      <c r="F12" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>22606</v>
+      </c>
+      <c r="G12" s="7">
+        <v>254</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>32850</v>
+      </c>
+      <c r="G13" s="7">
+        <v>365</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>18618</v>
+      </c>
+      <c r="G14" s="7">
+        <v>214</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>12800</v>
+      </c>
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7">
+        <v>456</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="7">
+        <v>145</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="7">
+        <v>854</v>
+      </c>
+      <c r="F17" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>105896</v>
+      </c>
+      <c r="G17" s="7">
+        <v>124</v>
+      </c>
+      <c r="H17" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7">
+        <v>789</v>
+      </c>
+      <c r="F18" s="7">
+        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
+        <v>287985</v>
+      </c>
+      <c r="G18" s="7">
+        <v>365</v>
+      </c>
+      <c r="H18" s="7">
+        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="12">
+        <v>250</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1200</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12">
+        <v>854</v>
+      </c>
+      <c r="F23" s="12">
+        <v>124</v>
+      </c>
+      <c r="G23" s="12">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="12">
+        <v>56</v>
+      </c>
+      <c r="F24" s="12">
+        <v>670</v>
+      </c>
+      <c r="G24" s="12">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="12">
+        <v>789</v>
+      </c>
+      <c r="F25" s="12">
+        <v>365</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="12">
+        <v>87</v>
+      </c>
+      <c r="F26" s="12">
+        <v>214</v>
+      </c>
+      <c r="G26" s="12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8">
+      <c r="D27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="12">
+        <v>456</v>
+      </c>
+      <c r="F27" s="12">
+        <v>145</v>
+      </c>
+      <c r="G27" s="12">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8">
+      <c r="D28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="12">
+        <v>90</v>
+      </c>
+      <c r="F28" s="12">
+        <v>365</v>
+      </c>
+      <c r="G28" s="12">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8">
+      <c r="D29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="12">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12">
+        <v>256</v>
+      </c>
+      <c r="G29" s="12">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
+      <c r="D30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="12">
+        <v>32</v>
+      </c>
+      <c r="F30" s="12">
+        <v>854</v>
+      </c>
+      <c r="G30" s="12">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="12">
+        <v>89</v>
+      </c>
+      <c r="F31" s="12">
+        <v>254</v>
+      </c>
+      <c r="G31" s="12">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2753</v>
+      </c>
+      <c r="F32" s="11">
+        <v>4447</v>
+      </c>
+      <c r="G32" s="11">
+        <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF39F26-02B4-4B55-8804-89B6DD783621}">
   <dimension ref="B6:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="18">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="15">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -1169,7 +1794,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -1228,7 +1853,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="15">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -1287,7 +1912,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="15">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1346,7 +1971,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="15">
       <c r="B11" s="2">
         <v>5</v>
       </c>
@@ -1405,7 +2030,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="15">
       <c r="B12" s="2">
         <v>6</v>
       </c>
@@ -1464,7 +2089,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="15">
       <c r="B13" s="2">
         <v>7</v>
       </c>
@@ -1523,7 +2148,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="15">
       <c r="B14" s="2">
         <v>8</v>
       </c>
@@ -1582,7 +2207,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="15">
       <c r="B15" s="2">
         <v>9</v>
       </c>
@@ -1627,7 +2252,7 @@
         <v>Result not found</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="15">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1686,7 +2311,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="15">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1745,7 +2370,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="15">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1825,457 +2450,400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DF7554-4702-4F72-BB16-8DFF65BD786D}">
-  <dimension ref="D4:H32"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EE6626-3FE3-4042-B023-AC151467B339}">
+  <dimension ref="E4:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="F4" s="8"/>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="6" spans="4:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
-      <c r="G6" s="6" t="s">
+    <row r="4" spans="5:9">
+      <c r="E4" s="18"/>
+    </row>
+    <row r="9" spans="5:9" ht="15.75">
+      <c r="E9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="13">
+        <v>65</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="F11" s="13">
+        <v>85</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="13">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="13">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="13">
+        <v>26648</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="13">
         <v>35</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7">
-        <v>250</v>
-      </c>
-      <c r="F9" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>300000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1200</v>
-      </c>
-      <c r="H9" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="H13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>37520</v>
-      </c>
-      <c r="G10" s="7">
-        <v>670</v>
-      </c>
-      <c r="H10" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>726</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>27328</v>
-      </c>
-      <c r="G11" s="7">
-        <v>854</v>
-      </c>
-      <c r="H11" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>886</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="7">
-        <v>89</v>
-      </c>
-      <c r="F12" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>22606</v>
-      </c>
-      <c r="G12" s="7">
-        <v>254</v>
-      </c>
-      <c r="H12" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7">
-        <v>90</v>
-      </c>
-      <c r="F13" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>32850</v>
-      </c>
-      <c r="G13" s="7">
-        <v>365</v>
-      </c>
-      <c r="H13" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="7">
-        <v>87</v>
-      </c>
-      <c r="F14" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>18618</v>
-      </c>
-      <c r="G14" s="7">
-        <v>214</v>
-      </c>
-      <c r="H14" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="7">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>12800</v>
-      </c>
-      <c r="G15" s="7">
-        <v>256</v>
-      </c>
-      <c r="H15" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="7">
-        <v>456</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7">
-        <v>145</v>
-      </c>
-      <c r="H16" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="7">
-        <v>854</v>
-      </c>
-      <c r="F17" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>105896</v>
-      </c>
-      <c r="G17" s="7">
-        <v>124</v>
-      </c>
-      <c r="H17" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>978</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="7">
-        <v>789</v>
-      </c>
-      <c r="F18" s="7">
-        <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Total Sell]]</f>
-        <v>287985</v>
-      </c>
-      <c r="G18" s="7">
-        <v>365</v>
-      </c>
-      <c r="H18" s="7">
-        <f>SUM(Table1[[#This Row],[Price]],Table1[[#This Row],[Total Sell]])</f>
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="12">
-        <v>250</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1200</v>
-      </c>
-      <c r="G22" s="12">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="12">
-        <v>854</v>
-      </c>
-      <c r="F23" s="12">
-        <v>124</v>
-      </c>
-      <c r="G23" s="12">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="12">
-        <v>56</v>
-      </c>
-      <c r="F24" s="12">
-        <v>670</v>
-      </c>
-      <c r="G24" s="12">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="12">
-        <v>789</v>
-      </c>
-      <c r="F25" s="12">
-        <v>365</v>
-      </c>
-      <c r="G25" s="12">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="12">
-        <v>87</v>
-      </c>
-      <c r="F26" s="12">
-        <v>214</v>
-      </c>
-      <c r="G26" s="12">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="12">
-        <v>456</v>
-      </c>
-      <c r="F27" s="12">
-        <v>145</v>
-      </c>
-      <c r="G27" s="12">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="12">
-        <v>90</v>
-      </c>
-      <c r="F28" s="12">
-        <v>365</v>
-      </c>
-      <c r="G28" s="12">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="12">
-        <v>50</v>
-      </c>
-      <c r="F29" s="12">
-        <v>256</v>
-      </c>
-      <c r="G29" s="12">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="12">
-        <v>32</v>
-      </c>
-      <c r="F30" s="12">
-        <v>854</v>
-      </c>
-      <c r="G30" s="12">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="12">
-        <v>89</v>
-      </c>
-      <c r="F31" s="12">
-        <v>254</v>
-      </c>
-      <c r="G31" s="12">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2753</v>
-      </c>
-      <c r="F32" s="11">
-        <v>4447</v>
-      </c>
-      <c r="G32" s="11">
-        <v>7200</v>
-      </c>
+      <c r="F14" s="13">
+        <v>89.999999999999901</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="13">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="15">
+      <c r="E15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="17">
+        <f>SUM(F10:F14)</f>
+        <v>299.99999999999989</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="13">
+        <v>6687</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="H16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="13">
+        <v>264789</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="H17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="13">
+        <v>26547</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="H18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="13">
+        <v>99745</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="15">
+      <c r="H19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="14">
+        <f>SUM(I11:I18)</f>
+        <v>448703</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="18"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <scenarios current="0" show="0" sqref="I19">
+    <scenario name="maximum" locked="1" count="8" user="STUDENT" comment="Created by STUDENT on 6/18/2025">
+      <inputCells r="I11" val="15000"/>
+      <inputCells r="I12" val="26648"/>
+      <inputCells r="I13" val="2600"/>
+      <inputCells r="I14" val="6687"/>
+      <inputCells r="I15" val="6687"/>
+      <inputCells r="I16" val="264789"/>
+      <inputCells r="I17" val="26547"/>
+      <inputCells r="I18" val="99745"/>
+    </scenario>
+    <scenario name="minimum" locked="1" count="8" user="STUDENT" comment="Created by STUDENT on 6/18/2025">
+      <inputCells r="I11" val="13587"/>
+      <inputCells r="I12" val="24648"/>
+      <inputCells r="I13" val="2457"/>
+      <inputCells r="I14" val="2464"/>
+      <inputCells r="I15" val="6487"/>
+      <inputCells r="I16" val="245789"/>
+      <inputCells r="I17" val="25547"/>
+      <inputCells r="I18" val="97745"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EE6626-3FE3-4042-B023-AC151467B339}">
-  <dimension ref="E6:J6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69918519-AC79-41A0-B684-D3315720F91E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="5" max="10" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.875" bestFit="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
+    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15.75">
+      <c r="B2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="33.75" hidden="1" outlineLevel="1">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15">
+      <c r="B5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="19">
+        <v>15000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="29">
+        <v>13587</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="19">
+        <v>26648</v>
+      </c>
+      <c r="E7" s="29">
+        <v>26648</v>
+      </c>
+      <c r="F7" s="29">
+        <v>24648</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="29">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="19">
+        <v>6687</v>
+      </c>
+      <c r="E9" s="29">
+        <v>6687</v>
+      </c>
+      <c r="F9" s="29">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="19">
+        <v>6687</v>
+      </c>
+      <c r="E10" s="29">
+        <v>6687</v>
+      </c>
+      <c r="F10" s="29">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="19">
+        <v>264789</v>
+      </c>
+      <c r="E11" s="29">
+        <v>264789</v>
+      </c>
+      <c r="F11" s="29">
+        <v>245789</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="19">
+        <v>26547</v>
+      </c>
+      <c r="E12" s="29">
+        <v>26547</v>
+      </c>
+      <c r="F12" s="29">
+        <v>25547</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" outlineLevel="1">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="19">
+        <v>99745</v>
+      </c>
+      <c r="E13" s="29">
+        <v>99745</v>
+      </c>
+      <c r="F13" s="29">
+        <v>97745</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15">
+      <c r="B14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="20">
+        <v>448703</v>
+      </c>
+      <c r="E15" s="20">
+        <v>448703</v>
+      </c>
+      <c r="F15" s="20">
+        <v>418724</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>